--- a/data/pca/factorExposure/factorExposure_2015-07-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02038501750456261</v>
+        <v>0.009288890768121403</v>
       </c>
       <c r="C2">
-        <v>-0.02443118282464922</v>
+        <v>-0.05271655022461587</v>
       </c>
       <c r="D2">
-        <v>-0.1222079593732853</v>
+        <v>0.1406117569544728</v>
       </c>
       <c r="E2">
-        <v>0.004002242259029535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01136718162753967</v>
+      </c>
+      <c r="F2">
+        <v>0.01533657428598582</v>
+      </c>
+      <c r="G2">
+        <v>-0.1209199702030755</v>
+      </c>
+      <c r="H2">
+        <v>0.06816579897486581</v>
+      </c>
+      <c r="I2">
+        <v>0.0175096930712297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2.113357169423095e-05</v>
+        <v>-0.002342420879351347</v>
       </c>
       <c r="C3">
-        <v>-0.009579590825074497</v>
+        <v>-0.006199245330337099</v>
       </c>
       <c r="D3">
-        <v>-0.004662313936650055</v>
+        <v>0.006053587850672777</v>
       </c>
       <c r="E3">
-        <v>-0.008221984072041116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01878213716015834</v>
+      </c>
+      <c r="F3">
+        <v>-0.005937699691408656</v>
+      </c>
+      <c r="G3">
+        <v>-0.007466233146177845</v>
+      </c>
+      <c r="H3">
+        <v>-0.003505598597105747</v>
+      </c>
+      <c r="I3">
+        <v>-0.02402158148174511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04599665225168932</v>
+        <v>0.01919432511172564</v>
       </c>
       <c r="C4">
-        <v>-0.06817963478219527</v>
+        <v>-0.09995381089459596</v>
       </c>
       <c r="D4">
-        <v>-0.1318950594597118</v>
+        <v>0.1377112292039773</v>
       </c>
       <c r="E4">
-        <v>-0.07231677084855703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01337842100165188</v>
+      </c>
+      <c r="F4">
+        <v>0.08659554081393961</v>
+      </c>
+      <c r="G4">
+        <v>-0.008781830804847972</v>
+      </c>
+      <c r="H4">
+        <v>0.04279403561025219</v>
+      </c>
+      <c r="I4">
+        <v>0.03838897892637258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02495383286074202</v>
+        <v>0.02584735537339224</v>
       </c>
       <c r="C6">
-        <v>-0.01335239534108154</v>
+        <v>-0.03124402171677405</v>
       </c>
       <c r="D6">
-        <v>-0.1424646161402149</v>
+        <v>0.1280284273893214</v>
       </c>
       <c r="E6">
-        <v>-0.02866976676507296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04576010209285223</v>
+      </c>
+      <c r="F6">
+        <v>0.05440127964369017</v>
+      </c>
+      <c r="G6">
+        <v>-0.01275425307257014</v>
+      </c>
+      <c r="H6">
+        <v>0.06829780659246536</v>
+      </c>
+      <c r="I6">
+        <v>-0.02682612588685608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007940974016679165</v>
+        <v>0.008433346853649677</v>
       </c>
       <c r="C7">
-        <v>-0.02302113581101596</v>
+        <v>-0.03329498208263575</v>
       </c>
       <c r="D7">
-        <v>-0.1131504532114274</v>
+        <v>0.1006698670164856</v>
       </c>
       <c r="E7">
-        <v>0.005557050777909801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05031304596072762</v>
+      </c>
+      <c r="F7">
+        <v>0.00712473727302485</v>
+      </c>
+      <c r="G7">
+        <v>0.007894564836457214</v>
+      </c>
+      <c r="H7">
+        <v>0.07348351583918124</v>
+      </c>
+      <c r="I7">
+        <v>-0.01999005537562957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0006733051696674182</v>
+        <v>-0.01083415764803275</v>
       </c>
       <c r="C8">
-        <v>-0.02667211793982772</v>
+        <v>-0.03267855900312365</v>
       </c>
       <c r="D8">
-        <v>-0.0841103369137738</v>
+        <v>0.08055649444374599</v>
       </c>
       <c r="E8">
-        <v>-0.01858097998184811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02089901639547095</v>
+      </c>
+      <c r="F8">
+        <v>0.04284299325042976</v>
+      </c>
+      <c r="G8">
+        <v>-0.06865954593145701</v>
+      </c>
+      <c r="H8">
+        <v>0.009004610340514732</v>
+      </c>
+      <c r="I8">
+        <v>-0.0452224615183421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03977162050262077</v>
+        <v>0.01397646363585007</v>
       </c>
       <c r="C9">
-        <v>-0.0589902273821041</v>
+        <v>-0.08418518966853057</v>
       </c>
       <c r="D9">
-        <v>-0.1343534821491245</v>
+        <v>0.1204701557398664</v>
       </c>
       <c r="E9">
-        <v>-0.05709078920793229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004359375424652795</v>
+      </c>
+      <c r="F9">
+        <v>0.05732343203389009</v>
+      </c>
+      <c r="G9">
+        <v>0.01212314244952876</v>
+      </c>
+      <c r="H9">
+        <v>0.05940810221846731</v>
+      </c>
+      <c r="I9">
+        <v>0.00731762297832776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1540699358676337</v>
+        <v>0.2325624420198593</v>
       </c>
       <c r="C10">
-        <v>0.179819790797923</v>
+        <v>0.1021257044907627</v>
       </c>
       <c r="D10">
-        <v>-0.01095203092851262</v>
+        <v>-0.001891848871226162</v>
       </c>
       <c r="E10">
-        <v>-0.04551461249616964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0257673116547208</v>
+      </c>
+      <c r="F10">
+        <v>0.0391887645022771</v>
+      </c>
+      <c r="G10">
+        <v>-0.00397409511002504</v>
+      </c>
+      <c r="H10">
+        <v>-0.06695856908237566</v>
+      </c>
+      <c r="I10">
+        <v>-0.1159134454169073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02277203122752615</v>
+        <v>0.009381050549433202</v>
       </c>
       <c r="C11">
-        <v>-0.04004020001512363</v>
+        <v>-0.05307468928774001</v>
       </c>
       <c r="D11">
-        <v>-0.05122785487995601</v>
+        <v>0.04378985522860577</v>
       </c>
       <c r="E11">
-        <v>0.01706376351852884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0198699431075241</v>
+      </c>
+      <c r="F11">
+        <v>-0.01170341319910325</v>
+      </c>
+      <c r="G11">
+        <v>0.004040851602682857</v>
+      </c>
+      <c r="H11">
+        <v>0.05146851299395237</v>
+      </c>
+      <c r="I11">
+        <v>0.0413366688208783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02493705406189281</v>
+        <v>0.009857242824754087</v>
       </c>
       <c r="C12">
-        <v>-0.04034526117111047</v>
+        <v>-0.05013491167389899</v>
       </c>
       <c r="D12">
-        <v>-0.0653673135657087</v>
+        <v>0.04924837334592893</v>
       </c>
       <c r="E12">
-        <v>0.009054125415400132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01888251619775799</v>
+      </c>
+      <c r="F12">
+        <v>-0.01763425634001191</v>
+      </c>
+      <c r="G12">
+        <v>0.0269017484879238</v>
+      </c>
+      <c r="H12">
+        <v>0.07215498045523432</v>
+      </c>
+      <c r="I12">
+        <v>0.02534731580833586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006839458503848543</v>
+        <v>-0.002222902031089828</v>
       </c>
       <c r="C13">
-        <v>-0.02507375112057588</v>
+        <v>-0.04434412018688882</v>
       </c>
       <c r="D13">
-        <v>-0.1559760866431747</v>
+        <v>0.1530147942325663</v>
       </c>
       <c r="E13">
-        <v>-0.0258136816586547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03932954752085698</v>
+      </c>
+      <c r="F13">
+        <v>0.0358003077745006</v>
+      </c>
+      <c r="G13">
+        <v>-0.03139879055080671</v>
+      </c>
+      <c r="H13">
+        <v>0.08442699837564184</v>
+      </c>
+      <c r="I13">
+        <v>-0.09961577495379546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002063766436828837</v>
+        <v>-0.001899320037295038</v>
       </c>
       <c r="C14">
-        <v>-0.01985432260204418</v>
+        <v>-0.02855221241805777</v>
       </c>
       <c r="D14">
-        <v>-0.1070350327254841</v>
+        <v>0.10691484463281</v>
       </c>
       <c r="E14">
-        <v>-0.003815076111260566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03059909746819928</v>
+      </c>
+      <c r="F14">
+        <v>0.02667940271232567</v>
+      </c>
+      <c r="G14">
+        <v>-0.01046213769870208</v>
+      </c>
+      <c r="H14">
+        <v>0.1299283960702604</v>
+      </c>
+      <c r="I14">
+        <v>-0.01254904542516563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001193629247795913</v>
+        <v>-0.001277457172581808</v>
       </c>
       <c r="C15">
-        <v>-0.01074729093136095</v>
+        <v>-0.01947398978248106</v>
       </c>
       <c r="D15">
-        <v>-0.02734730149882332</v>
+        <v>0.0538201756487268</v>
       </c>
       <c r="E15">
-        <v>0.005263123036497254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006368085914809734</v>
+      </c>
+      <c r="F15">
+        <v>0.003315529953772266</v>
+      </c>
+      <c r="G15">
+        <v>-0.02172969964262204</v>
+      </c>
+      <c r="H15">
+        <v>0.0237271538251059</v>
+      </c>
+      <c r="I15">
+        <v>0.0192877567825603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02299427115293014</v>
+        <v>0.009768108239570042</v>
       </c>
       <c r="C16">
-        <v>-0.03817474946970107</v>
+        <v>-0.04864714740443692</v>
       </c>
       <c r="D16">
-        <v>-0.05853326939976741</v>
+        <v>0.04532127945628781</v>
       </c>
       <c r="E16">
-        <v>0.01095582053007665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02118353485143313</v>
+      </c>
+      <c r="F16">
+        <v>-0.00818592357251792</v>
+      </c>
+      <c r="G16">
+        <v>0.01605979265841528</v>
+      </c>
+      <c r="H16">
+        <v>0.05578588377469194</v>
+      </c>
+      <c r="I16">
+        <v>0.03793106748752099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006864739323210227</v>
+        <v>0.000282430147566516</v>
       </c>
       <c r="C19">
-        <v>-0.02139979346185931</v>
+        <v>-0.02022636796243223</v>
       </c>
       <c r="D19">
-        <v>-0.1174006723139815</v>
+        <v>0.07379234517399771</v>
       </c>
       <c r="E19">
-        <v>-0.03906545768677127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01938839811699333</v>
+      </c>
+      <c r="F19">
+        <v>0.009425820632082782</v>
+      </c>
+      <c r="G19">
+        <v>-0.01386917591674011</v>
+      </c>
+      <c r="H19">
+        <v>0.06968886443443174</v>
+      </c>
+      <c r="I19">
+        <v>-0.04954152482824518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005861345367066571</v>
+        <v>0.003778757839384553</v>
       </c>
       <c r="C20">
-        <v>-0.02530810268462768</v>
+        <v>-0.03810934854147525</v>
       </c>
       <c r="D20">
-        <v>-0.0929197796460185</v>
+        <v>0.09702971380567352</v>
       </c>
       <c r="E20">
-        <v>-0.0299757739380605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008938554708071193</v>
+      </c>
+      <c r="F20">
+        <v>0.02679757337815803</v>
+      </c>
+      <c r="G20">
+        <v>0.002032311394420792</v>
+      </c>
+      <c r="H20">
+        <v>0.05839826410598114</v>
+      </c>
+      <c r="I20">
+        <v>0.001852345257828776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00939252904585834</v>
+        <v>0.002409713414150551</v>
       </c>
       <c r="C21">
-        <v>-0.0301755378520547</v>
+        <v>-0.04210436440882234</v>
       </c>
       <c r="D21">
-        <v>-0.1700165831002842</v>
+        <v>0.1356469996661072</v>
       </c>
       <c r="E21">
-        <v>-0.06109481236894095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.000963321077302885</v>
+      </c>
+      <c r="F21">
+        <v>0.07129491471536574</v>
+      </c>
+      <c r="G21">
+        <v>-0.009310307942981804</v>
+      </c>
+      <c r="H21">
+        <v>0.1791573665664014</v>
+      </c>
+      <c r="I21">
+        <v>-0.1184208743110543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003153417688226262</v>
+        <v>-0.01204131704215307</v>
       </c>
       <c r="C22">
-        <v>-0.06059318416413433</v>
+        <v>-0.08220347120617327</v>
       </c>
       <c r="D22">
-        <v>-0.2217378271439461</v>
+        <v>0.2606548836279503</v>
       </c>
       <c r="E22">
-        <v>0.04353426206606659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05269055164650479</v>
+      </c>
+      <c r="F22">
+        <v>0.0292971831169035</v>
+      </c>
+      <c r="G22">
+        <v>-0.3487994064411354</v>
+      </c>
+      <c r="H22">
+        <v>-0.392835148353912</v>
+      </c>
+      <c r="I22">
+        <v>0.1326374144821617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003419697941829697</v>
+        <v>-0.01156977880239709</v>
       </c>
       <c r="C23">
-        <v>-0.06107125631697111</v>
+        <v>-0.08318353083014278</v>
       </c>
       <c r="D23">
-        <v>-0.2213142145880822</v>
+        <v>0.2613008316183556</v>
       </c>
       <c r="E23">
-        <v>0.04337160887523798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04957199161887443</v>
+      </c>
+      <c r="F23">
+        <v>0.02862753762430892</v>
+      </c>
+      <c r="G23">
+        <v>-0.3476546843558501</v>
+      </c>
+      <c r="H23">
+        <v>-0.3932829681400916</v>
+      </c>
+      <c r="I23">
+        <v>0.1344543004314518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02960591569207616</v>
+        <v>0.009065594303439849</v>
       </c>
       <c r="C24">
-        <v>-0.05627432110345787</v>
+        <v>-0.06589821090653361</v>
       </c>
       <c r="D24">
-        <v>-0.07079712309924988</v>
+        <v>0.0531671560060599</v>
       </c>
       <c r="E24">
-        <v>0.00837895870389584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02551170326959478</v>
+      </c>
+      <c r="F24">
+        <v>-0.006271206575909235</v>
+      </c>
+      <c r="G24">
+        <v>0.009230891048610117</v>
+      </c>
+      <c r="H24">
+        <v>0.07983649957431457</v>
+      </c>
+      <c r="I24">
+        <v>0.03673661929638251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03154602852909372</v>
+        <v>0.01226661167721126</v>
       </c>
       <c r="C25">
-        <v>-0.04736674333066042</v>
+        <v>-0.06134396091730617</v>
       </c>
       <c r="D25">
-        <v>-0.06420438105044943</v>
+        <v>0.05100085864409801</v>
       </c>
       <c r="E25">
-        <v>0.002800411135405149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01150875801452161</v>
+      </c>
+      <c r="F25">
+        <v>-0.008220907284218157</v>
+      </c>
+      <c r="G25">
+        <v>0.01521608611789991</v>
+      </c>
+      <c r="H25">
+        <v>0.04706223915353787</v>
+      </c>
+      <c r="I25">
+        <v>0.02576092365303315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009800493839852535</v>
+        <v>0.005781515389540233</v>
       </c>
       <c r="C26">
-        <v>-0.01424311265460857</v>
+        <v>-0.02496426225893629</v>
       </c>
       <c r="D26">
-        <v>-0.08180003196282737</v>
+        <v>0.0689044294802347</v>
       </c>
       <c r="E26">
-        <v>-0.01296901691480263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02616612476756921</v>
+      </c>
+      <c r="F26">
+        <v>0.02298438615021713</v>
+      </c>
+      <c r="G26">
+        <v>0.008579535895879502</v>
+      </c>
+      <c r="H26">
+        <v>0.08458014000027353</v>
+      </c>
+      <c r="I26">
+        <v>-0.05002322939419944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2369651186083906</v>
+        <v>0.3188539895309715</v>
       </c>
       <c r="C28">
-        <v>0.2226845023889618</v>
+        <v>0.1041013111809421</v>
       </c>
       <c r="D28">
-        <v>-0.02262728097754977</v>
+        <v>-0.004523264300178405</v>
       </c>
       <c r="E28">
-        <v>-0.06600209191447894</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05425238018650136</v>
+      </c>
+      <c r="F28">
+        <v>0.03680240686470965</v>
+      </c>
+      <c r="G28">
+        <v>-0.02181806699912047</v>
+      </c>
+      <c r="H28">
+        <v>-0.01217195434891922</v>
+      </c>
+      <c r="I28">
+        <v>-0.1473946516848207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001485974316932076</v>
+        <v>-0.003255044001399142</v>
       </c>
       <c r="C29">
-        <v>-0.02258443056885946</v>
+        <v>-0.0311856062145441</v>
       </c>
       <c r="D29">
-        <v>-0.1016889551322648</v>
+        <v>0.1016695679577591</v>
       </c>
       <c r="E29">
-        <v>-0.007905999003247895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0394532849986489</v>
+      </c>
+      <c r="F29">
+        <v>0.03407203029670462</v>
+      </c>
+      <c r="G29">
+        <v>0.0006120685485342827</v>
+      </c>
+      <c r="H29">
+        <v>0.1362338718496384</v>
+      </c>
+      <c r="I29">
+        <v>-0.01442233204399732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02796306199080834</v>
+        <v>0.01489393465890075</v>
       </c>
       <c r="C30">
-        <v>-0.05860095087919916</v>
+        <v>-0.08505844499738838</v>
       </c>
       <c r="D30">
-        <v>-0.1691593244132058</v>
+        <v>0.1631802304227105</v>
       </c>
       <c r="E30">
-        <v>-0.01509160692004449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04113948899055497</v>
+      </c>
+      <c r="F30">
+        <v>0.0366563204053085</v>
+      </c>
+      <c r="G30">
+        <v>-0.03403630449010168</v>
+      </c>
+      <c r="H30">
+        <v>0.06157264787083459</v>
+      </c>
+      <c r="I30">
+        <v>0.06223351774077759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04783204582049254</v>
+        <v>0.009749900377710499</v>
       </c>
       <c r="C31">
-        <v>-0.08347363339613796</v>
+        <v>-0.09258401403897253</v>
       </c>
       <c r="D31">
-        <v>-0.07290848517645704</v>
+        <v>0.04111457682781645</v>
       </c>
       <c r="E31">
-        <v>-0.008516799855757455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008448681634265027</v>
+      </c>
+      <c r="F31">
+        <v>0.01144613282559621</v>
+      </c>
+      <c r="G31">
+        <v>-0.002406820722253179</v>
+      </c>
+      <c r="H31">
+        <v>0.04706950727729026</v>
+      </c>
+      <c r="I31">
+        <v>-0.07360438488452183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02249340100803604</v>
+        <v>0.008488352733161987</v>
       </c>
       <c r="C32">
-        <v>-0.03135414168624581</v>
+        <v>-0.04442328684986379</v>
       </c>
       <c r="D32">
-        <v>-0.1115819927871157</v>
+        <v>0.1107803207621678</v>
       </c>
       <c r="E32">
-        <v>-0.06245004227910112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.005966576655332394</v>
+      </c>
+      <c r="F32">
+        <v>0.04831501164992705</v>
+      </c>
+      <c r="G32">
+        <v>-0.02880975330520663</v>
+      </c>
+      <c r="H32">
+        <v>0.04490922435167071</v>
+      </c>
+      <c r="I32">
+        <v>-0.08087023357391677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01609693474556761</v>
+        <v>0.005670211344132274</v>
       </c>
       <c r="C33">
-        <v>-0.04214699840105915</v>
+        <v>-0.05717982406321049</v>
       </c>
       <c r="D33">
-        <v>-0.1500225872094463</v>
+        <v>0.1273636006535461</v>
       </c>
       <c r="E33">
-        <v>-0.03214703862745793</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01668987572749977</v>
+      </c>
+      <c r="F33">
+        <v>0.02654505734872078</v>
+      </c>
+      <c r="G33">
+        <v>-0.00520887037553157</v>
+      </c>
+      <c r="H33">
+        <v>0.0729370352960914</v>
+      </c>
+      <c r="I33">
+        <v>-0.0203758366652676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02687958397504262</v>
+        <v>0.006165205094552376</v>
       </c>
       <c r="C34">
-        <v>-0.05837135483068469</v>
+        <v>-0.06286860128813987</v>
       </c>
       <c r="D34">
-        <v>-0.05110788616487116</v>
+        <v>0.0308446622044907</v>
       </c>
       <c r="E34">
-        <v>0.04929517370554925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02925805187404029</v>
+      </c>
+      <c r="F34">
+        <v>-0.03608964342784446</v>
+      </c>
+      <c r="G34">
+        <v>0.008768722597285875</v>
+      </c>
+      <c r="H34">
+        <v>0.06303349972981143</v>
+      </c>
+      <c r="I34">
+        <v>0.01359678700972263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001053658611334026</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006130851273888172</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02728881359038672</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004132462124399408</v>
+      </c>
+      <c r="F35">
+        <v>0.01101335985896375</v>
+      </c>
+      <c r="G35">
+        <v>-0.004247370646005547</v>
+      </c>
+      <c r="H35">
+        <v>0.03430249475150061</v>
+      </c>
+      <c r="I35">
+        <v>0.01182518387545459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009875007352245413</v>
+        <v>0.006110278801960596</v>
       </c>
       <c r="C36">
-        <v>-0.006487328455336695</v>
+        <v>-0.0203307705372401</v>
       </c>
       <c r="D36">
-        <v>-0.09457139252766901</v>
+        <v>0.07843580319884054</v>
       </c>
       <c r="E36">
-        <v>-0.03804003356744388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.007090886675062471</v>
+      </c>
+      <c r="F36">
+        <v>0.03640595643092304</v>
+      </c>
+      <c r="G36">
+        <v>0.000252467974149853</v>
+      </c>
+      <c r="H36">
+        <v>0.06557917129992526</v>
+      </c>
+      <c r="I36">
+        <v>-0.03605474275434171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007606135132547637</v>
+        <v>0.01347295391322806</v>
       </c>
       <c r="C38">
-        <v>-0.006617861272819029</v>
+        <v>-0.01617161441905765</v>
       </c>
       <c r="D38">
-        <v>-0.09008788022026054</v>
+        <v>0.08585603085540469</v>
       </c>
       <c r="E38">
-        <v>-0.006305257501577423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.008314972768494105</v>
+      </c>
+      <c r="F38">
+        <v>-0.008709380937757041</v>
+      </c>
+      <c r="G38">
+        <v>-0.01650786235799298</v>
+      </c>
+      <c r="H38">
+        <v>0.05586747405765931</v>
+      </c>
+      <c r="I38">
+        <v>-0.03695815603701246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0228864430709718</v>
+        <v>0.005580603676724268</v>
       </c>
       <c r="C39">
-        <v>-0.05661835445003161</v>
+        <v>-0.07537535531505669</v>
       </c>
       <c r="D39">
-        <v>-0.1171910880723707</v>
+        <v>0.1055956633391722</v>
       </c>
       <c r="E39">
-        <v>0.02401869019170914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04923828914119224</v>
+      </c>
+      <c r="F39">
+        <v>-0.00475258596541298</v>
+      </c>
+      <c r="G39">
+        <v>0.01111531326114485</v>
+      </c>
+      <c r="H39">
+        <v>0.1058112069969818</v>
+      </c>
+      <c r="I39">
+        <v>0.07056219376287237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01250463839483734</v>
+        <v>0.01066167324980434</v>
       </c>
       <c r="C40">
-        <v>-0.01631338696794275</v>
+        <v>-0.02540963094719917</v>
       </c>
       <c r="D40">
-        <v>-0.1180286539401833</v>
+        <v>0.09730173875582972</v>
       </c>
       <c r="E40">
-        <v>0.02584999855567687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04337902103871171</v>
+      </c>
+      <c r="F40">
+        <v>-0.02272853379814781</v>
+      </c>
+      <c r="G40">
+        <v>-0.06591816639539677</v>
+      </c>
+      <c r="H40">
+        <v>0.07748501591987898</v>
+      </c>
+      <c r="I40">
+        <v>-0.06636066853266727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01311837486210995</v>
+        <v>0.01193462215179654</v>
       </c>
       <c r="C41">
-        <v>-0.006893400197514931</v>
+        <v>-0.01588669851543137</v>
       </c>
       <c r="D41">
-        <v>-0.06022604689276449</v>
+        <v>0.04233819306045534</v>
       </c>
       <c r="E41">
-        <v>-0.03002599331668443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02089220429669668</v>
+      </c>
+      <c r="F41">
+        <v>0.01729355685080192</v>
+      </c>
+      <c r="G41">
+        <v>-0.0107857085339172</v>
+      </c>
+      <c r="H41">
+        <v>0.04486152823142082</v>
+      </c>
+      <c r="I41">
+        <v>-0.04887935679140658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007723880154081273</v>
+        <v>0.005995116692406978</v>
       </c>
       <c r="C43">
-        <v>-0.007556247587134651</v>
+        <v>-0.01495371569359584</v>
       </c>
       <c r="D43">
-        <v>-0.07033610347616608</v>
+        <v>0.05137352441594881</v>
       </c>
       <c r="E43">
-        <v>-0.01839215400920904</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.00405100329961335</v>
+      </c>
+      <c r="F43">
+        <v>0.01462007881125907</v>
+      </c>
+      <c r="G43">
+        <v>-0.01171386390936304</v>
+      </c>
+      <c r="H43">
+        <v>0.06312367763759358</v>
+      </c>
+      <c r="I43">
+        <v>-0.0341624077043424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01817003499262818</v>
+        <v>0.00980311829950945</v>
       </c>
       <c r="C44">
-        <v>-0.0250687770749579</v>
+        <v>-0.04567051293989847</v>
       </c>
       <c r="D44">
-        <v>-0.1159768457275138</v>
+        <v>0.1194109203940349</v>
       </c>
       <c r="E44">
-        <v>-0.04110371642711184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02238221174758897</v>
+      </c>
+      <c r="F44">
+        <v>0.02802746049164713</v>
+      </c>
+      <c r="G44">
+        <v>-0.02014686821248237</v>
+      </c>
+      <c r="H44">
+        <v>0.05126837226654607</v>
+      </c>
+      <c r="I44">
+        <v>0.05726360657942553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009628189808859893</v>
+        <v>-0.00184362543452545</v>
       </c>
       <c r="C46">
-        <v>-0.02833490842303793</v>
+        <v>-0.03930358094593155</v>
       </c>
       <c r="D46">
-        <v>-0.09711880316358253</v>
+        <v>0.08439555341895297</v>
       </c>
       <c r="E46">
-        <v>-0.01585722733440231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02498752332148793</v>
+      </c>
+      <c r="F46">
+        <v>0.02930354674806599</v>
+      </c>
+      <c r="G46">
+        <v>-0.01356363445747104</v>
+      </c>
+      <c r="H46">
+        <v>0.1422215380957231</v>
+      </c>
+      <c r="I46">
+        <v>-0.01850389895580034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08961866883781208</v>
+        <v>0.03524544185363689</v>
       </c>
       <c r="C47">
-        <v>-0.1014514947558661</v>
+        <v>-0.1239769876295122</v>
       </c>
       <c r="D47">
-        <v>-0.06138787030540754</v>
+        <v>0.02329820854741801</v>
       </c>
       <c r="E47">
-        <v>-0.02415918582669315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02019109205220544</v>
+      </c>
+      <c r="F47">
+        <v>-0.01487333260366439</v>
+      </c>
+      <c r="G47">
+        <v>0.05149738889133572</v>
+      </c>
+      <c r="H47">
+        <v>0.0373970515815803</v>
+      </c>
+      <c r="I47">
+        <v>-0.1409389007610368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008490298691658377</v>
+        <v>0.004396573700716279</v>
       </c>
       <c r="C48">
-        <v>-0.01526164188595117</v>
+        <v>-0.02822878111908046</v>
       </c>
       <c r="D48">
-        <v>-0.09777617921859001</v>
+        <v>0.08178476484670424</v>
       </c>
       <c r="E48">
-        <v>-0.05140913585630584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003651011502669293</v>
+      </c>
+      <c r="F48">
+        <v>0.03996761803915593</v>
+      </c>
+      <c r="G48">
+        <v>-0.003657541836111847</v>
+      </c>
+      <c r="H48">
+        <v>0.09604830062398387</v>
+      </c>
+      <c r="I48">
+        <v>-0.02354972434623746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04441880136107045</v>
+        <v>0.0129827049245479</v>
       </c>
       <c r="C50">
-        <v>-0.06006775457608547</v>
+        <v>-0.07458050009040901</v>
       </c>
       <c r="D50">
-        <v>-0.07186936158350002</v>
+        <v>0.04673992733510309</v>
       </c>
       <c r="E50">
-        <v>-0.005610138577985916</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.00157580201179954</v>
+      </c>
+      <c r="F50">
+        <v>0.006325581662713091</v>
+      </c>
+      <c r="G50">
+        <v>-0.02163065936056655</v>
+      </c>
+      <c r="H50">
+        <v>0.03537579075308848</v>
+      </c>
+      <c r="I50">
+        <v>-0.1260695590222018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003879565743882377</v>
+        <v>0.001763073476620057</v>
       </c>
       <c r="C51">
-        <v>-0.003986911472724223</v>
+        <v>-0.01631505326329702</v>
       </c>
       <c r="D51">
-        <v>-0.05922543568033403</v>
+        <v>0.06615259810243743</v>
       </c>
       <c r="E51">
-        <v>-0.001153018920456087</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03683483656012476</v>
+      </c>
+      <c r="F51">
+        <v>0.03746223351263944</v>
+      </c>
+      <c r="G51">
+        <v>-0.03670393545905933</v>
+      </c>
+      <c r="H51">
+        <v>0.04894671944461131</v>
+      </c>
+      <c r="I51">
+        <v>-0.01608216326074074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1165408788778897</v>
+        <v>0.05935728502622677</v>
       </c>
       <c r="C53">
-        <v>-0.1164184963329939</v>
+        <v>-0.156575709162159</v>
       </c>
       <c r="D53">
-        <v>-0.02077918598117467</v>
+        <v>-0.0146902682553562</v>
       </c>
       <c r="E53">
-        <v>-0.0552305823553798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03423919144833345</v>
+      </c>
+      <c r="F53">
+        <v>0.04562579502186702</v>
+      </c>
+      <c r="G53">
+        <v>-0.00622727499438658</v>
+      </c>
+      <c r="H53">
+        <v>0.001907067169839704</v>
+      </c>
+      <c r="I53">
+        <v>-0.08316958116048755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01824880554703532</v>
+        <v>0.009774315814117697</v>
       </c>
       <c r="C54">
-        <v>-0.02280577521977326</v>
+        <v>-0.04067977678250732</v>
       </c>
       <c r="D54">
-        <v>-0.104232393107113</v>
+        <v>0.08370448208989892</v>
       </c>
       <c r="E54">
-        <v>0.003085948307825924</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01115613277250219</v>
+      </c>
+      <c r="F54">
+        <v>-0.002624256085756997</v>
+      </c>
+      <c r="G54">
+        <v>-0.02417463819002191</v>
+      </c>
+      <c r="H54">
+        <v>0.09670265328486821</v>
+      </c>
+      <c r="I54">
+        <v>-0.04664920950768125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1029166216434693</v>
+        <v>0.04640499411831919</v>
       </c>
       <c r="C55">
-        <v>-0.09869438399688485</v>
+        <v>-0.1291049785187142</v>
       </c>
       <c r="D55">
-        <v>-0.009361942677380769</v>
+        <v>-0.02585405555601932</v>
       </c>
       <c r="E55">
-        <v>-0.01263879042858687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001455215004894422</v>
+      </c>
+      <c r="F55">
+        <v>0.01227575718005573</v>
+      </c>
+      <c r="G55">
+        <v>-0.0137426868169783</v>
+      </c>
+      <c r="H55">
+        <v>0.009931545712854567</v>
+      </c>
+      <c r="I55">
+        <v>-0.08890422291573834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.143660991996601</v>
+        <v>0.06426775603893334</v>
       </c>
       <c r="C56">
-        <v>-0.1316241060778169</v>
+        <v>-0.1877840937547415</v>
       </c>
       <c r="D56">
-        <v>-0.007354705690412955</v>
+        <v>-0.02349522885691062</v>
       </c>
       <c r="E56">
-        <v>-0.01376497480581233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03371984711066363</v>
+      </c>
+      <c r="F56">
+        <v>0.01282901697142251</v>
+      </c>
+      <c r="G56">
+        <v>-0.06263699764981578</v>
+      </c>
+      <c r="H56">
+        <v>0.001385271349426188</v>
+      </c>
+      <c r="I56">
+        <v>-0.1084020433910021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.001783040055607516</v>
+        <v>0.003707941606672176</v>
       </c>
       <c r="C58">
-        <v>-0.01262464586346028</v>
+        <v>-0.04903163672452265</v>
       </c>
       <c r="D58">
-        <v>-0.2282834362933423</v>
+        <v>0.2879098876552029</v>
       </c>
       <c r="E58">
-        <v>-0.06978467599341334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.0197657654761436</v>
+      </c>
+      <c r="F58">
+        <v>0.09421774461382915</v>
+      </c>
+      <c r="G58">
+        <v>-0.1259233803748816</v>
+      </c>
+      <c r="H58">
+        <v>-0.09519346244929737</v>
+      </c>
+      <c r="I58">
+        <v>0.05963480201793803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1653399104042039</v>
+        <v>0.2450711303878446</v>
       </c>
       <c r="C59">
-        <v>0.1595350883771244</v>
+        <v>0.07104320701668129</v>
       </c>
       <c r="D59">
-        <v>-0.05070955918953558</v>
+        <v>0.06104936098588868</v>
       </c>
       <c r="E59">
-        <v>-0.03761974631633831</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03405980250815371</v>
+      </c>
+      <c r="F59">
+        <v>0.01478348112254838</v>
+      </c>
+      <c r="G59">
+        <v>-0.002278130058443023</v>
+      </c>
+      <c r="H59">
+        <v>-0.01107534004839548</v>
+      </c>
+      <c r="I59">
+        <v>-0.04404244046621549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1983011477794727</v>
+        <v>0.151687593782497</v>
       </c>
       <c r="C60">
-        <v>-0.08543567691260059</v>
+        <v>-0.1681423654307792</v>
       </c>
       <c r="D60">
-        <v>-0.1533329171475794</v>
+        <v>0.07816120999273694</v>
       </c>
       <c r="E60">
-        <v>0.190913300074784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2285916794245965</v>
+      </c>
+      <c r="F60">
+        <v>-0.1633550886777953</v>
+      </c>
+      <c r="G60">
+        <v>0.2291270651849823</v>
+      </c>
+      <c r="H60">
+        <v>-0.2198584732131331</v>
+      </c>
+      <c r="I60">
+        <v>0.02919332172569113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03321253079866576</v>
+        <v>0.01246575881763152</v>
       </c>
       <c r="C61">
-        <v>-0.05283514612113593</v>
+        <v>-0.0720738996049243</v>
       </c>
       <c r="D61">
-        <v>-0.1069271126653622</v>
+        <v>0.0830373305314397</v>
       </c>
       <c r="E61">
-        <v>0.01149343280235263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03656025135251778</v>
+      </c>
+      <c r="F61">
+        <v>-0.01398259710338863</v>
+      </c>
+      <c r="G61">
+        <v>0.02633662534009811</v>
+      </c>
+      <c r="H61">
+        <v>0.09644174354956628</v>
+      </c>
+      <c r="I61">
+        <v>0.02296711521606323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01019618710882564</v>
+        <v>0.001173121015498678</v>
       </c>
       <c r="C63">
-        <v>-0.02627182986409161</v>
+        <v>-0.03626559664168123</v>
       </c>
       <c r="D63">
-        <v>-0.09351895550137317</v>
+        <v>0.07060257340785171</v>
       </c>
       <c r="E63">
-        <v>-0.01025208979951228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02843356079703045</v>
+      </c>
+      <c r="F63">
+        <v>0.02224217462935285</v>
+      </c>
+      <c r="G63">
+        <v>-0.008769285122015689</v>
+      </c>
+      <c r="H63">
+        <v>0.06575278824218077</v>
+      </c>
+      <c r="I63">
+        <v>-0.004868568996202698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06560572086402837</v>
+        <v>0.02208676006577226</v>
       </c>
       <c r="C64">
-        <v>-0.07827946139499689</v>
+        <v>-0.1038954552793809</v>
       </c>
       <c r="D64">
-        <v>-0.03993018623867624</v>
+        <v>0.02604686645370942</v>
       </c>
       <c r="E64">
-        <v>-0.01955355346795434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0272276783302685</v>
+      </c>
+      <c r="F64">
+        <v>0.02347522201460303</v>
+      </c>
+      <c r="G64">
+        <v>0.05049416932343041</v>
+      </c>
+      <c r="H64">
+        <v>0.109104748436918</v>
+      </c>
+      <c r="I64">
+        <v>0.06842825852678283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02670962275838175</v>
+        <v>0.02059544964398597</v>
       </c>
       <c r="C65">
-        <v>-0.01590261534539128</v>
+        <v>-0.03961379085438747</v>
       </c>
       <c r="D65">
-        <v>-0.1178536578204209</v>
+        <v>0.1184730170918927</v>
       </c>
       <c r="E65">
-        <v>0.002077590731076388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04568327780167524</v>
+      </c>
+      <c r="F65">
+        <v>0.008598028643407309</v>
+      </c>
+      <c r="G65">
+        <v>0.01463955182458337</v>
+      </c>
+      <c r="H65">
+        <v>0.0511824434859778</v>
+      </c>
+      <c r="I65">
+        <v>-0.006848145350888884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0257776795068332</v>
+        <v>0.003843033632329671</v>
       </c>
       <c r="C66">
-        <v>-0.06383886123397692</v>
+        <v>-0.09019089802278875</v>
       </c>
       <c r="D66">
-        <v>-0.1213719417969741</v>
+        <v>0.1290094702269086</v>
       </c>
       <c r="E66">
-        <v>0.02666010099786112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03576435517987434</v>
+      </c>
+      <c r="F66">
+        <v>-0.01317031538375283</v>
+      </c>
+      <c r="G66">
+        <v>-0.005144106562300411</v>
+      </c>
+      <c r="H66">
+        <v>0.06063548453308715</v>
+      </c>
+      <c r="I66">
+        <v>0.07549818497565225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02775290654151446</v>
+        <v>0.02423769089692905</v>
       </c>
       <c r="C67">
-        <v>-0.01757610501911748</v>
+        <v>-0.02823922110150501</v>
       </c>
       <c r="D67">
-        <v>-0.0443080534853395</v>
+        <v>0.03536400231813154</v>
       </c>
       <c r="E67">
-        <v>0.01757831911022672</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005963907757993997</v>
+      </c>
+      <c r="F67">
+        <v>-0.03038216336036898</v>
+      </c>
+      <c r="G67">
+        <v>-0.004792707631586459</v>
+      </c>
+      <c r="H67">
+        <v>0.06328492572371432</v>
+      </c>
+      <c r="I67">
+        <v>-0.0244161889941902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1910327008192004</v>
+        <v>0.2675526074342037</v>
       </c>
       <c r="C68">
-        <v>0.174403558130989</v>
+        <v>0.072312989087086</v>
       </c>
       <c r="D68">
-        <v>-0.03116022482812142</v>
+        <v>0.03403472430404687</v>
       </c>
       <c r="E68">
-        <v>-0.009705769156777611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005576485100049224</v>
+      </c>
+      <c r="F68">
+        <v>0.02889293849587659</v>
+      </c>
+      <c r="G68">
+        <v>-0.06495743980639775</v>
+      </c>
+      <c r="H68">
+        <v>-0.0389068251767175</v>
+      </c>
+      <c r="I68">
+        <v>-0.09827990645409544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06820570727749002</v>
+        <v>0.02085834219022742</v>
       </c>
       <c r="C69">
-        <v>-0.1129188742680448</v>
+        <v>-0.1197856703510756</v>
       </c>
       <c r="D69">
-        <v>-0.08293083790325112</v>
+        <v>0.0360379331002252</v>
       </c>
       <c r="E69">
-        <v>-0.008217135480190664</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.002524565310102122</v>
+      </c>
+      <c r="F69">
+        <v>-0.01635463061403505</v>
+      </c>
+      <c r="G69">
+        <v>0.03767878457826267</v>
+      </c>
+      <c r="H69">
+        <v>0.03435319023833588</v>
+      </c>
+      <c r="I69">
+        <v>-0.09443574277256019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1971939237354534</v>
+        <v>0.2691720449686724</v>
       </c>
       <c r="C71">
-        <v>0.1942352765934461</v>
+        <v>0.08767694705020267</v>
       </c>
       <c r="D71">
-        <v>-0.02751865058085899</v>
+        <v>0.0233254721753657</v>
       </c>
       <c r="E71">
-        <v>-0.01205289718338325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007578830782416618</v>
+      </c>
+      <c r="F71">
+        <v>0.01439123395821654</v>
+      </c>
+      <c r="G71">
+        <v>-0.03564425531959751</v>
+      </c>
+      <c r="H71">
+        <v>0.01815048524191543</v>
+      </c>
+      <c r="I71">
+        <v>-0.1650509482960659</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1122449342905258</v>
+        <v>0.06028520884668579</v>
       </c>
       <c r="C72">
-        <v>-0.06538725622425436</v>
+        <v>-0.1211189889041748</v>
       </c>
       <c r="D72">
-        <v>-0.09683054782294757</v>
+        <v>0.06260029761123584</v>
       </c>
       <c r="E72">
-        <v>0.0537250633204915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08798434195036574</v>
+      </c>
+      <c r="F72">
+        <v>-0.01477192731637533</v>
+      </c>
+      <c r="G72">
+        <v>0.02226668236384645</v>
+      </c>
+      <c r="H72">
+        <v>0.05420142302892187</v>
+      </c>
+      <c r="I72">
+        <v>0.05241280825451624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1837210913174163</v>
+        <v>0.1374156481590015</v>
       </c>
       <c r="C73">
-        <v>-0.05157850640054972</v>
+        <v>-0.1415286237412937</v>
       </c>
       <c r="D73">
-        <v>-0.2243785755644973</v>
+        <v>0.0922466437559586</v>
       </c>
       <c r="E73">
-        <v>0.2799795975816168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3780372763814384</v>
+      </c>
+      <c r="F73">
+        <v>-0.2480752645981827</v>
+      </c>
+      <c r="G73">
+        <v>0.4264517511626937</v>
+      </c>
+      <c r="H73">
+        <v>-0.1636762225609955</v>
+      </c>
+      <c r="I73">
+        <v>0.07682897846019052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1156018049454028</v>
+        <v>0.0527794674442756</v>
       </c>
       <c r="C74">
-        <v>-0.1076661904569792</v>
+        <v>-0.1472940437222825</v>
       </c>
       <c r="D74">
-        <v>0.01970701820087955</v>
+        <v>-0.0407242143796528</v>
       </c>
       <c r="E74">
-        <v>-0.04125341363820532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0117558239272565</v>
+      </c>
+      <c r="F74">
+        <v>0.04042819932738296</v>
+      </c>
+      <c r="G74">
+        <v>-0.005730292997891458</v>
+      </c>
+      <c r="H74">
+        <v>-0.01009776584100617</v>
+      </c>
+      <c r="I74">
+        <v>-0.1109621055443205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2483103121813213</v>
+        <v>0.1219010523646551</v>
       </c>
       <c r="C75">
-        <v>-0.1815613745378424</v>
+        <v>-0.2684942939688734</v>
       </c>
       <c r="D75">
-        <v>0.1043059383761219</v>
+        <v>-0.1300715877174509</v>
       </c>
       <c r="E75">
-        <v>0.007040400085654994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09048504029066749</v>
+      </c>
+      <c r="F75">
+        <v>-0.03769537422394967</v>
+      </c>
+      <c r="G75">
+        <v>-0.1041066990251681</v>
+      </c>
+      <c r="H75">
+        <v>0.006334342656643198</v>
+      </c>
+      <c r="I75">
+        <v>-0.08629297822521424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1508914318997607</v>
+        <v>0.06940494776763646</v>
       </c>
       <c r="C76">
-        <v>-0.1277087428838537</v>
+        <v>-0.1822754051837002</v>
       </c>
       <c r="D76">
-        <v>-0.02290770711090203</v>
+        <v>-0.02915071542689522</v>
       </c>
       <c r="E76">
-        <v>-0.01346577426601077</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02744713482196168</v>
+      </c>
+      <c r="F76">
+        <v>0.003479192662855575</v>
+      </c>
+      <c r="G76">
+        <v>-0.04673795138623509</v>
+      </c>
+      <c r="H76">
+        <v>0.03526370891165142</v>
+      </c>
+      <c r="I76">
+        <v>-0.1134502795677749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01721385338870276</v>
+        <v>0.02585695912098141</v>
       </c>
       <c r="C77">
-        <v>-0.07533485159069178</v>
+        <v>-0.094305404465387</v>
       </c>
       <c r="D77">
-        <v>-0.07415708855295118</v>
+        <v>0.2753266668100846</v>
       </c>
       <c r="E77">
-        <v>-0.2318961410528829</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7655961238154946</v>
+      </c>
+      <c r="F77">
+        <v>-0.3241012076772029</v>
+      </c>
+      <c r="G77">
+        <v>0.282198876094397</v>
+      </c>
+      <c r="H77">
+        <v>-0.234714100339293</v>
+      </c>
+      <c r="I77">
+        <v>-0.02936891272912196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03094700930236912</v>
+        <v>0.01419461595640506</v>
       </c>
       <c r="C78">
-        <v>-0.06448174519072199</v>
+        <v>-0.08525911762891944</v>
       </c>
       <c r="D78">
-        <v>-0.1536424208119431</v>
+        <v>0.1348393510255984</v>
       </c>
       <c r="E78">
-        <v>-0.03413185931811368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04864059057816982</v>
+      </c>
+      <c r="F78">
+        <v>0.04616168001317945</v>
+      </c>
+      <c r="G78">
+        <v>-0.03277935748183668</v>
+      </c>
+      <c r="H78">
+        <v>0.0156354956660961</v>
+      </c>
+      <c r="I78">
+        <v>-0.07381232645108847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.100462707256717</v>
+        <v>0.03871383185875205</v>
       </c>
       <c r="C79">
-        <v>-0.1602744950469523</v>
+        <v>-0.1836739161631164</v>
       </c>
       <c r="D79">
-        <v>0.08632604702444518</v>
+        <v>-0.06860359389618173</v>
       </c>
       <c r="E79">
-        <v>-0.7945571113032326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.118512372071757</v>
+      </c>
+      <c r="F79">
+        <v>0.8063218278978278</v>
+      </c>
+      <c r="G79">
+        <v>0.3854633084186361</v>
+      </c>
+      <c r="H79">
+        <v>-0.2285991222327748</v>
+      </c>
+      <c r="I79">
+        <v>0.1488897543540933</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007506097463225952</v>
+        <v>-0.0003835867046641793</v>
       </c>
       <c r="C80">
-        <v>-0.04606251687174835</v>
+        <v>-0.04640775142453828</v>
       </c>
       <c r="D80">
-        <v>-0.04814785709486998</v>
+        <v>0.04365655991179059</v>
       </c>
       <c r="E80">
-        <v>0.007607828261953645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02546183152830967</v>
+      </c>
+      <c r="F80">
+        <v>0.008744067017081514</v>
+      </c>
+      <c r="G80">
+        <v>-0.02811929063011144</v>
+      </c>
+      <c r="H80">
+        <v>0.01773440190122105</v>
+      </c>
+      <c r="I80">
+        <v>-0.05783876622545145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1274336645841344</v>
+        <v>0.04967252076494127</v>
       </c>
       <c r="C81">
-        <v>-0.1246386669176251</v>
+        <v>-0.1654427068863354</v>
       </c>
       <c r="D81">
-        <v>0.06396753783661042</v>
+        <v>-0.0758222370565739</v>
       </c>
       <c r="E81">
-        <v>-0.06989115387936509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07148079641517689</v>
+      </c>
+      <c r="F81">
+        <v>0.04556873959133804</v>
+      </c>
+      <c r="G81">
+        <v>-0.048708298902864</v>
+      </c>
+      <c r="H81">
+        <v>0.06528473826305821</v>
+      </c>
+      <c r="I81">
+        <v>-0.134668949206557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2723435669533751</v>
+        <v>0.1076658538310804</v>
       </c>
       <c r="C82">
-        <v>-0.2749205103248868</v>
+        <v>-0.3280391723536537</v>
       </c>
       <c r="D82">
-        <v>0.2088100270594488</v>
+        <v>-0.2257177209308789</v>
       </c>
       <c r="E82">
-        <v>0.1152541985465501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04754379164600767</v>
+      </c>
+      <c r="F82">
+        <v>-0.1287963745505847</v>
+      </c>
+      <c r="G82">
+        <v>-0.0723693924394893</v>
+      </c>
+      <c r="H82">
+        <v>0.09427098529869769</v>
+      </c>
+      <c r="I82">
+        <v>-0.03916472584025508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.002675026524880207</v>
+        <v>-0.01168961439467195</v>
       </c>
       <c r="C83">
-        <v>-0.05179317414838931</v>
+        <v>-0.03479725529199852</v>
       </c>
       <c r="D83">
-        <v>-0.01528580560746188</v>
+        <v>0.03878644734770164</v>
       </c>
       <c r="E83">
-        <v>-0.05411199897739569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08879807918044284</v>
+      </c>
+      <c r="F83">
+        <v>0.02405508120167026</v>
+      </c>
+      <c r="G83">
+        <v>-0.03213559973517221</v>
+      </c>
+      <c r="H83">
+        <v>-0.0004296524568480172</v>
+      </c>
+      <c r="I83">
+        <v>-0.1532778619768549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001007328599751647</v>
+        <v>-0.002519152573738917</v>
       </c>
       <c r="C84">
-        <v>0.001945363214118074</v>
+        <v>-0.0161212443426034</v>
       </c>
       <c r="D84">
-        <v>-0.004136500355891041</v>
+        <v>0.04191817155137425</v>
       </c>
       <c r="E84">
-        <v>-0.0006160633264369285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01029554432489205</v>
+      </c>
+      <c r="F84">
+        <v>0.018321968088769</v>
+      </c>
+      <c r="G84">
+        <v>-0.0501718994495824</v>
+      </c>
+      <c r="H84">
+        <v>0.003911253975021149</v>
+      </c>
+      <c r="I84">
+        <v>0.03394354595957866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1512273277706943</v>
+        <v>0.06438107326186435</v>
       </c>
       <c r="C85">
-        <v>-0.1300824767659915</v>
+        <v>-0.1838244577538851</v>
       </c>
       <c r="D85">
-        <v>0.03956914303628994</v>
+        <v>-0.08815590673704575</v>
       </c>
       <c r="E85">
-        <v>-0.02725205888315934</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.00215864758244764</v>
+      </c>
+      <c r="F85">
+        <v>0.07818470784881432</v>
+      </c>
+      <c r="G85">
+        <v>-0.03432382068249906</v>
+      </c>
+      <c r="H85">
+        <v>0.006499346539295376</v>
+      </c>
+      <c r="I85">
+        <v>-0.0919614453866457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01404219311657229</v>
+        <v>0.01072748679343061</v>
       </c>
       <c r="C86">
-        <v>-0.01213606514144431</v>
+        <v>-0.0301700198312627</v>
       </c>
       <c r="D86">
-        <v>-0.08372440429848145</v>
+        <v>0.1074246480200445</v>
       </c>
       <c r="E86">
-        <v>-0.04848638384712875</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04009802363971217</v>
+      </c>
+      <c r="F86">
+        <v>-0.01488608646928903</v>
+      </c>
+      <c r="G86">
+        <v>0.02778876585084557</v>
+      </c>
+      <c r="H86">
+        <v>0.002884827209420063</v>
+      </c>
+      <c r="I86">
+        <v>-0.09481762549873099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0166250191162403</v>
+        <v>0.009622886191183221</v>
       </c>
       <c r="C87">
-        <v>-0.02726225161113052</v>
+        <v>-0.05510636855781369</v>
       </c>
       <c r="D87">
-        <v>-0.1333990017229794</v>
+        <v>0.1457934516265489</v>
       </c>
       <c r="E87">
-        <v>-0.04320036280176361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.001745303903780936</v>
+      </c>
+      <c r="F87">
+        <v>0.03975996259535056</v>
+      </c>
+      <c r="G87">
+        <v>-0.06403832717717024</v>
+      </c>
+      <c r="H87">
+        <v>0.02532883658162746</v>
+      </c>
+      <c r="I87">
+        <v>0.0317345734579787</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06016305301562663</v>
+        <v>0.03063349479088283</v>
       </c>
       <c r="C88">
-        <v>-0.04503077854549009</v>
+        <v>-0.06854727148922148</v>
       </c>
       <c r="D88">
-        <v>-0.03325728141732868</v>
+        <v>0.006216890590275968</v>
       </c>
       <c r="E88">
-        <v>-0.02873305789467378</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01353622407126082</v>
+      </c>
+      <c r="F88">
+        <v>0.02199736381454181</v>
+      </c>
+      <c r="G88">
+        <v>-0.0006888380823641988</v>
+      </c>
+      <c r="H88">
+        <v>0.03247249760396623</v>
+      </c>
+      <c r="I88">
+        <v>-0.04498349945718031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2964425785216842</v>
+        <v>0.4118424716097355</v>
       </c>
       <c r="C89">
-        <v>0.3551168852020042</v>
+        <v>0.1718786977112941</v>
       </c>
       <c r="D89">
-        <v>-0.02596999222658731</v>
+        <v>0.02997891249810816</v>
       </c>
       <c r="E89">
-        <v>-0.09868365056058859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02226801780050654</v>
+      </c>
+      <c r="F89">
+        <v>0.07310193397881308</v>
+      </c>
+      <c r="G89">
+        <v>-0.04450388126331386</v>
+      </c>
+      <c r="H89">
+        <v>0.1422308111133313</v>
+      </c>
+      <c r="I89">
+        <v>0.3432397288736852</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2358321257115624</v>
+        <v>0.31490256346761</v>
       </c>
       <c r="C90">
-        <v>0.2597734824912262</v>
+        <v>0.1143286001574933</v>
       </c>
       <c r="D90">
-        <v>-0.03423912173888883</v>
+        <v>0.03600984857745975</v>
       </c>
       <c r="E90">
-        <v>0.008989230377062415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01317919504335932</v>
+      </c>
+      <c r="F90">
+        <v>-0.01968318190682438</v>
+      </c>
+      <c r="G90">
+        <v>-0.06167339628713849</v>
+      </c>
+      <c r="H90">
+        <v>-0.02491464736606767</v>
+      </c>
+      <c r="I90">
+        <v>-0.08080048213199513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1675814808083159</v>
+        <v>0.07381091059949678</v>
       </c>
       <c r="C91">
-        <v>-0.1753526293710833</v>
+        <v>-0.2113861001782479</v>
       </c>
       <c r="D91">
-        <v>0.08792285737830331</v>
+        <v>-0.1051163297092241</v>
       </c>
       <c r="E91">
-        <v>-0.1011108286996688</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06782575598834241</v>
+      </c>
+      <c r="F91">
+        <v>0.06960583034568271</v>
+      </c>
+      <c r="G91">
+        <v>-0.01352519830012187</v>
+      </c>
+      <c r="H91">
+        <v>0.01012671342699809</v>
+      </c>
+      <c r="I91">
+        <v>-0.1179196477226518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.218485171598182</v>
+        <v>0.3344625267276824</v>
       </c>
       <c r="C92">
-        <v>0.2759318934184867</v>
+        <v>0.1503466305924746</v>
       </c>
       <c r="D92">
-        <v>0.04897795362315201</v>
+        <v>-0.002648392751249959</v>
       </c>
       <c r="E92">
-        <v>-0.05928916083459444</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07527677321464875</v>
+      </c>
+      <c r="F92">
+        <v>0.02074422066737441</v>
+      </c>
+      <c r="G92">
+        <v>-0.03483625016682956</v>
+      </c>
+      <c r="H92">
+        <v>0.02633080850732927</v>
+      </c>
+      <c r="I92">
+        <v>0.172475686581842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2601584145313747</v>
+        <v>0.3338521397443353</v>
       </c>
       <c r="C93">
-        <v>0.2713350217354735</v>
+        <v>0.1216315124709634</v>
       </c>
       <c r="D93">
-        <v>-0.01635893097879303</v>
+        <v>-0.0102363930768889</v>
       </c>
       <c r="E93">
-        <v>-0.004126417289944356</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02810228271559878</v>
+      </c>
+      <c r="F93">
+        <v>0.01251404877553785</v>
+      </c>
+      <c r="G93">
+        <v>0.01416023044741987</v>
+      </c>
+      <c r="H93">
+        <v>0.003190779143284523</v>
+      </c>
+      <c r="I93">
+        <v>-0.09673414664245228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3134188272800889</v>
+        <v>0.1442049055489814</v>
       </c>
       <c r="C94">
-        <v>-0.2458875477212454</v>
+        <v>-0.3542392550568126</v>
       </c>
       <c r="D94">
-        <v>0.3676314761973896</v>
+        <v>-0.343307413615659</v>
       </c>
       <c r="E94">
-        <v>0.1826884187389166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04786967362312334</v>
+      </c>
+      <c r="F94">
+        <v>-0.1069816611726444</v>
+      </c>
+      <c r="G94">
+        <v>-0.3121027417901861</v>
+      </c>
+      <c r="H94">
+        <v>-0.04865395654441911</v>
+      </c>
+      <c r="I94">
+        <v>0.3878824107785838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0177056926907737</v>
+        <v>0.01768018580735254</v>
       </c>
       <c r="C95">
-        <v>-0.03644725569884375</v>
+        <v>-0.05968742400336823</v>
       </c>
       <c r="D95">
-        <v>-0.06549889909702136</v>
+        <v>0.1120379483565533</v>
       </c>
       <c r="E95">
-        <v>-0.1005107801427664</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1904372005325744</v>
+      </c>
+      <c r="F95">
+        <v>-0.07489868121400055</v>
+      </c>
+      <c r="G95">
+        <v>0.1423890752499252</v>
+      </c>
+      <c r="H95">
+        <v>0.3692816746171219</v>
+      </c>
+      <c r="I95">
+        <v>0.5055158022101758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0004006519639504031</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001319438242752935</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005397008992498554</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0009753335068315559</v>
+      </c>
+      <c r="F97">
+        <v>-0.00129445020895117</v>
+      </c>
+      <c r="G97">
+        <v>0.0002955857830968834</v>
+      </c>
+      <c r="H97">
+        <v>0.0006800408614374277</v>
+      </c>
+      <c r="I97">
+        <v>0.0007435458073806343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1530951779021613</v>
+        <v>0.115398925355327</v>
       </c>
       <c r="C98">
-        <v>-0.0685350268638326</v>
+        <v>-0.142034990304458</v>
       </c>
       <c r="D98">
-        <v>-0.1146727446423839</v>
+        <v>0.05594117865907607</v>
       </c>
       <c r="E98">
-        <v>0.2059000739436666</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2683927990169986</v>
+      </c>
+      <c r="F98">
+        <v>-0.1730351224045333</v>
+      </c>
+      <c r="G98">
+        <v>0.2649958851445632</v>
+      </c>
+      <c r="H98">
+        <v>-0.1679042038875141</v>
+      </c>
+      <c r="I98">
+        <v>0.03851191946310148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001910118686149768</v>
+        <v>-0.002878896524171709</v>
       </c>
       <c r="C101">
-        <v>-0.02200081537239902</v>
+        <v>-0.03063666863880828</v>
       </c>
       <c r="D101">
-        <v>-0.1018797262147113</v>
+        <v>0.1012822435438556</v>
       </c>
       <c r="E101">
-        <v>-0.009173224508467375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0387502170643584</v>
+      </c>
+      <c r="F101">
+        <v>0.03451770875303918</v>
+      </c>
+      <c r="G101">
+        <v>-4.81170137505751e-05</v>
+      </c>
+      <c r="H101">
+        <v>0.1373990512155888</v>
+      </c>
+      <c r="I101">
+        <v>-0.01435028890506428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1178103241524297</v>
+        <v>0.03715266546016621</v>
       </c>
       <c r="C102">
-        <v>-0.1460166156297985</v>
+        <v>-0.1525422825409572</v>
       </c>
       <c r="D102">
-        <v>0.07064653713873024</v>
+        <v>-0.09194680551034519</v>
       </c>
       <c r="E102">
-        <v>0.03856980118995298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03069914373657528</v>
+      </c>
+      <c r="F102">
+        <v>-0.06753740088287086</v>
+      </c>
+      <c r="G102">
+        <v>0.01173411530472709</v>
+      </c>
+      <c r="H102">
+        <v>0.05041729884546764</v>
+      </c>
+      <c r="I102">
+        <v>-0.01862273136942181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
